--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3313846.16271708</v>
+        <v>3306920.21563554</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223168</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791238</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.1242129758048</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>357.9461382200495</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -713,13 +713,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>66.21659530538606</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348900053</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.08478869357517</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>253.8243076884219</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>173.3111674796338</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>264.7093273289311</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023834053</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>45.04968784997224</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>79.92938740919254</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>95.98918911403646</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>112.4146879222726</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>225.93078155091</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347866</v>
+        <v>102.2141420390929</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,10 +1376,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>99.46191014565997</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>71.73832450627474</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,16 +1585,16 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972061</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>52.22057316872892</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>81.61838887131763</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665137</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453495</v>
+        <v>20.92391191189584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443508</v>
+        <v>48.81858568179597</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504634</v>
+        <v>67.32610467782429</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074581</v>
+        <v>52.4732329281067</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258553</v>
+        <v>38.04694813994642</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546465</v>
+        <v>37.97339019282553</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523191</v>
+        <v>39.7228416125928</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762405</v>
+        <v>50.54167953498494</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419609</v>
+        <v>37.89393170155698</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536802</v>
+        <v>15.73364728272891</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982394</v>
+        <v>6.632145647184828</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535126</v>
+        <v>84.75808915271215</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595233</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139541</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>143.5290007893337</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
-        <v>106.3740388304723</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3977,13 +3977,13 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>205.2376787958976</v>
       </c>
       <c r="D44" t="n">
         <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>65.88713256224403</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332849</v>
@@ -4043,7 +4043,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4189,13 +4189,13 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
         <v>135.2726795246148</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1696.52985563793</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.52985563793</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="E2" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900801</v>
+        <v>512.0408447112596</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780833</v>
+        <v>502.9184932396669</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587713</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="N2" t="n">
-        <v>2091.088937983568</v>
+        <v>1584.876694038787</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137463</v>
+        <v>1986.923381216637</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078514</v>
+        <v>1820.409826157688</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.52985563793</v>
+        <v>1596.909223717104</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.52985563793</v>
+        <v>1341.156494151703</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.52985563793</v>
+        <v>999.0496848552215</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.52985563793</v>
+        <v>628.0506498235089</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.52985563793</v>
+        <v>628.0506498235089</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.52985563793</v>
+        <v>628.0506498235089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955106</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>505.9467430955106</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920903</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>302.614802402978</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512724</v>
+        <v>89.88557988671072</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.733842113161</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>1718.915558135544</v>
+        <v>1289.384420380774</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135544</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851941</v>
+        <v>1790.551203376225</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851941</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851941</v>
+        <v>1866.068574729049</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927957</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606599</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977666</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110953</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609646</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364719</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703882</v>
+        <v>62.80619326586995</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>584.3177198794024</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>298.8789281213033</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>42.49073853703882</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>42.49073853703882</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703882</v>
+        <v>62.80619326586995</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703882</v>
+        <v>62.80619326586995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692.826725640665</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="C5" t="n">
-        <v>692.826725640665</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="D5" t="n">
-        <v>692.826725640665</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="E5" t="n">
-        <v>692.826725640665</v>
+        <v>329.8578707179454</v>
       </c>
       <c r="F5" t="n">
-        <v>679.9726912110468</v>
+        <v>317.0038362883272</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>307.8814848167345</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="M5" t="n">
-        <v>1039.443159191858</v>
+        <v>1045.297237830363</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828091</v>
+        <v>1546.464020825814</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720419</v>
+        <v>1986.503621718143</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792992</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352408</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="U5" t="n">
-        <v>1478.770039787007</v>
+        <v>1858.402739872166</v>
       </c>
       <c r="V5" t="n">
-        <v>1478.770039787007</v>
+        <v>1516.295930575684</v>
       </c>
       <c r="W5" t="n">
-        <v>1478.770039787007</v>
+        <v>1516.295930575684</v>
       </c>
       <c r="X5" t="n">
-        <v>1089.317434720064</v>
+        <v>1126.843325508741</v>
       </c>
       <c r="Y5" t="n">
-        <v>692.826725640665</v>
+        <v>730.3526164293423</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163362</v>
+        <v>595.3726849936495</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764284</v>
+        <v>444.7184545537417</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8241771979087</v>
+        <v>314.629487175222</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087965</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192825</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703882</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703882</v>
+        <v>89.88557988671072</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189926</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M6" t="n">
-        <v>475.3448668189926</v>
+        <v>1458.085323074341</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896721</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580653</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297051</v>
+        <v>1959.252106069792</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851941</v>
+        <v>2024.916294931115</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750006</v>
+        <v>2000.99925182918</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649874</v>
+        <v>1955.494516627188</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848783</v>
+        <v>1778.510704826096</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527425</v>
+        <v>1568.447561504738</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898492</v>
+        <v>1345.907559875805</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031779</v>
+        <v>1115.790314009092</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817903</v>
+        <v>926.4832363591036</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572975</v>
+        <v>747.1690194346108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.49073853703882</v>
+        <v>424.5346241543356</v>
       </c>
       <c r="C7" t="n">
-        <v>42.49073853703882</v>
+        <v>254.3295062203248</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703882</v>
+        <v>254.3295062203248</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703882</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703882</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703882</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703882</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703882</v>
+        <v>40.4983258986223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="U7" t="n">
-        <v>422.7799174887263</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="V7" t="n">
-        <v>422.7799174887263</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="W7" t="n">
-        <v>139.4495154199039</v>
+        <v>658.6149463713525</v>
       </c>
       <c r="X7" t="n">
-        <v>42.49073853703882</v>
+        <v>424.5346241543356</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.49073853703882</v>
+        <v>424.5346241543356</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.839545823232</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="C8" t="n">
-        <v>69.28935600275456</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
         <v>69.28935600275456</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1970.922039360746</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1628.815230064265</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1257.816195032552</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>868.363589965609</v>
       </c>
       <c r="Y8" t="n">
-        <v>182.839545823232</v>
+        <v>471.8728808862101</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>305.4650404492652</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1827.815439560371</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.58061935049</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>960.5228502918588</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>652.8800066955916</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955916</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244622</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>3005.489809301069</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2729.431455556545</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y11" t="n">
-        <v>2133.36950398458</v>
+        <v>1854.812182422092</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1490.311599914302</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979813</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445334</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5200,22 +5200,22 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.115887455785</v>
+        <v>1625.725108676624</v>
       </c>
       <c r="C14" t="n">
-        <v>1382.881067245904</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.38061974976</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>784.7377761534931</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>462.7840189706592</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>144.5619447458505</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.731903451959</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.219979672204</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.669951879993</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669550995</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082772</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443714</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445328</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,52 +5434,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404581</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329741</v>
       </c>
       <c r="U16" t="n">
         <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852093</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592126</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5507,16 +5507,16 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5674,16 +5674,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5841,13 +5841,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5911,16 +5911,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
         <v>974.9038003296507</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6139,19 +6139,19 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
         <v>629.0093992567336</v>
@@ -6206,55 +6206,55 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6300,7 +6300,7 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>2273.334693965057</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2391.700393923186</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6379,7 +6379,7 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
@@ -6458,25 +6458,25 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6485,16 +6485,16 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6503,10 +6503,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674343</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.5275805474766</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267677</v>
+        <v>87.68547930209951</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322592</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597211</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2356.288247000678</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879804</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011326</v>
+        <v>3142.665177090499</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152275</v>
+        <v>3327.510737231448</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522563</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382474</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748666</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>323.4000413040139</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="N33" t="n">
-        <v>2268.512462400553</v>
+        <v>1462.744098412886</v>
       </c>
       <c r="O33" t="n">
-        <v>2386.878162358681</v>
+        <v>1979.264381003867</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590213</v>
+        <v>341.6872565554797</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229144</v>
+        <v>288.6839909715336</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233331</v>
+        <v>250.252730224113</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804395</v>
+        <v>211.8957704333801</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913164</v>
+        <v>171.7716879964177</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886658</v>
+        <v>120.7194864459278</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806371</v>
+        <v>82.44278775748644</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5426273830455</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.55021474462896</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359355</v>
+        <v>162.235063622804</v>
       </c>
       <c r="L34" t="n">
-        <v>501.7125810501208</v>
+        <v>326.3627034966038</v>
       </c>
       <c r="M34" t="n">
-        <v>796.4946670287704</v>
+        <v>512.6542818348678</v>
       </c>
       <c r="N34" t="n">
-        <v>1088.174808700365</v>
+        <v>810.7134513543754</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.879575742073</v>
+        <v>1088.287753884382</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022247</v>
+        <v>1323.033455149259</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392298</v>
+        <v>1326.45565151931</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422779</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003232</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448295</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279029</v>
+        <v>798.6106513157184</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569845</v>
+        <v>632.4821015969607</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378715</v>
+        <v>515.6036317300084</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524187</v>
+        <v>409.6934228967164</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229871</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343044</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222407</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343045</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899326</v>
+        <v>1772.044870492822</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.43596739239</v>
+        <v>1476.310620985886</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.436090599191</v>
+        <v>1188.310744192687</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058686</v>
+        <v>883.1684712993649</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259791</v>
+        <v>563.7152848194759</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>247.9937812976123</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2753.842303828244</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.284520786665</v>
+        <v>2666.159174380162</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709855</v>
+        <v>2374.147821303352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.22371062059</v>
+        <v>2075.098364214086</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.618740970509</v>
+        <v>1765.284417415691</v>
       </c>
       <c r="C44" t="n">
-        <v>1397.884491463573</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1109.884614670374</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>804.7423417770519</v>
+        <v>964.8314810666466</v>
       </c>
       <c r="F44" t="n">
-        <v>485.2891552971631</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G44" t="n">
-        <v>169.5676517752995</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2878.572604561693</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2633.907047255344</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2360.349264213765</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781039</v>
+        <v>2068.337911136955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691773</v>
+        <v>2068.337911136955</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016743819</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529096</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.198973302239</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160326</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940009</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107125</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507694</v>
+        <v>195.8449201154554</v>
       </c>
       <c r="O2" t="n">
-        <v>183.349684765887</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622972</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>321.9193007555631</v>
+        <v>535.4537921689259</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.9166326216678</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>655.954125330506</v>
       </c>
       <c r="N5" t="n">
-        <v>448.9838192531712</v>
+        <v>655.347565070563</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>189.1021272540285</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820907</v>
       </c>
       <c r="N6" t="n">
-        <v>583.0340493902065</v>
+        <v>591.6011865869455</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>157.3156166522006</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,10 +8459,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>634.4471913084061</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>236.0990445535295</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238545</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8772,19 +8772,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>609.3287968270082</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O24" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238534</v>
       </c>
       <c r="O27" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943151</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>166.3231752016892</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,10 +11139,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11151,13 +11151,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11382,7 +11382,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.7962030080137</v>
       </c>
     </row>
     <row r="12">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>243.0318988390533</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>145.2325565835401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>80.84637966960872</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.42471811547328</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.53922821596926</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4882478966983</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576218.8171230098</v>
+        <v>576218.8171230099</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576218.8171230099</v>
+        <v>576218.8171230098</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613129.4055174128</v>
+        <v>613129.4055174127</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>578731.2680373646</v>
+        <v>578731.2680373645</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649195.8411360845</v>
+        <v>649195.8411360843</v>
       </c>
       <c r="C2" t="n">
-        <v>649195.8411360842</v>
+        <v>649195.8411360844</v>
       </c>
       <c r="D2" t="n">
-        <v>649195.8411360843</v>
+        <v>649195.8411360838</v>
       </c>
       <c r="E2" t="n">
         <v>610114.0416596584</v>
       </c>
       <c r="F2" t="n">
-        <v>610114.0416596587</v>
+        <v>610114.0416596581</v>
       </c>
       <c r="G2" t="n">
-        <v>649195.8411360857</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="H2" t="n">
         <v>649195.8411360857</v>
@@ -26338,22 +26338,22 @@
         <v>649195.8411360852</v>
       </c>
       <c r="K2" t="n">
-        <v>649195.8411360853</v>
+        <v>649195.8411360852</v>
       </c>
       <c r="L2" t="n">
-        <v>649195.8411360839</v>
+        <v>649195.8411360856</v>
       </c>
       <c r="M2" t="n">
+        <v>649195.8411360859</v>
+      </c>
+      <c r="N2" t="n">
         <v>649195.8411360857</v>
       </c>
-      <c r="N2" t="n">
-        <v>649195.8411360859</v>
-      </c>
       <c r="O2" t="n">
+        <v>612774.2838042679</v>
+      </c>
+      <c r="P2" t="n">
         <v>612774.2838042685</v>
-      </c>
-      <c r="P2" t="n">
-        <v>612774.2838042683</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343508</v>
+        <v>169649.00587655</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602651</v>
+        <v>26460.41160941804</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301434</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670107</v>
+        <v>46725.80335481236</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883814</v>
+        <v>177303.7227646046</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883814</v>
+        <v>177303.7227646046</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183767</v>
       </c>
       <c r="F4" t="n">
         <v>97239.09137183768</v>
       </c>
       <c r="G4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="H4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>98913.70727082909</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881495</v>
+        <v>64406.32768295295</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,28 +26488,28 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446768</v>
+        <v>60332.67530588341</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234688.4342252028</v>
+        <v>237836.7848119767</v>
       </c>
       <c r="C6" t="n">
-        <v>412683.7313595532</v>
+        <v>407485.7906885269</v>
       </c>
       <c r="D6" t="n">
-        <v>406540.1724024803</v>
+        <v>398803.8831790884</v>
       </c>
       <c r="E6" t="n">
-        <v>327309.7296411995</v>
+        <v>327201.1690870983</v>
       </c>
       <c r="F6" t="n">
-        <v>457762.6607789119</v>
+        <v>457654.1002248101</v>
       </c>
       <c r="G6" t="n">
         <v>440087.703932232</v>
@@ -26543,25 +26543,25 @@
         <v>469182.6598052465</v>
       </c>
       <c r="J6" t="n">
-        <v>241097.0164554963</v>
+        <v>247613.3016100694</v>
       </c>
       <c r="K6" t="n">
-        <v>462942.891402463</v>
+        <v>462942.8914024629</v>
       </c>
       <c r="L6" t="n">
-        <v>424048.5444698736</v>
+        <v>419999.707259403</v>
       </c>
       <c r="M6" t="n">
-        <v>426451.3828708778</v>
+        <v>425399.68785969</v>
       </c>
       <c r="N6" t="n">
-        <v>469182.6598052466</v>
+        <v>469182.6598052463</v>
       </c>
       <c r="O6" t="n">
-        <v>439556.6089207318</v>
+        <v>439455.4379281428</v>
       </c>
       <c r="P6" t="n">
-        <v>458540.1687508885</v>
+        <v>458438.9977583002</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,22 +26808,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443784</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443784</v>
-      </c>
       <c r="L4" t="n">
-        <v>856.7828422880687</v>
+        <v>831.877684307862</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126792</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087633</v>
+        <v>58.40725419351544</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165955</v>
+        <v>14.33013548902041</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559194</v>
+        <v>646.8007142757131</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455244</v>
+        <v>129.6883820257311</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126792</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630977</v>
+        <v>85.18305253651624</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>294.3655852784781</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64057927544945</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>62.5714823993484</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408008</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>146.4182780610955</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>9.495244038962142</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>235.719960477243</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>56.13289260024317</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051367</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>88.53168247915761</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>74.07383661019696</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,10 +27825,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>135.7503298808103</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>276.8290585598261</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>27.26442071883741</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>178.2829560090413</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>130.3599693155844</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431647</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
+        <v>30.27223765901306</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431647</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431647</v>
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29551,7 +29551,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,13 +29782,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>98.75804948161317</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>103.2865954513737</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539249</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>13.98970481639715</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539249</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>58.99686212484343</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539249</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668753</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,16 +30414,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561692933</v>
+        <v>36.24905561693163</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561692943</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561693106</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -32008,13 +32008,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -33664,7 +33664,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129853</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129853</v>
+        <v>46.72642877767132</v>
       </c>
       <c r="O2" t="n">
-        <v>33.78584734179061</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129853</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>236.5471879013965</v>
+        <v>450.0816793147593</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N5" t="n">
-        <v>299.8653279153871</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>38.80068001310335</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="N6" t="n">
-        <v>497.6619365360399</v>
+        <v>506.2290737327788</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>66.3274634962866</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>485.328699970622</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>146.5021092201962</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35492,19 +35492,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>516.9416747776963</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>296.1454641376043</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133901</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36373,7 +36373,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O24" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698319</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="O27" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.575562627224</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,7 +36847,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098173</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>73.9360531523773</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800139</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,13 +37078,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.729082098836</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>543.2424948273995</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>454.9911329579614</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176578</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>96.65136250320712</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759448</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>301.0698682015228</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>180.0838982628016</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528463</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37859,10 +37859,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37871,13 +37871,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697213</v>
+        <v>224.4223670697236</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144770362</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>202.034550438951</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
@@ -38187,13 +38187,13 @@
         <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
